--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Friedrich_Gilg/Ernst_Friedrich_Gilg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Friedrich_Gilg/Ernst_Friedrich_Gilg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Friedrich Gilg (12 janvier 1867 à Obereggenen près de Schliengen (Grand-duché de Bade) - 11 octobre 1933 à Berlin) est un botaniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilg a été conservateur du Jardin botanique de Berlin. Avec Adolf Engler, il est l'éditeur des 9e et 10e éditions du Syllabus der Pflanzenfamilien (Syllabus des familles de plantes) (1921).
 Pour le livre Das Pflanzenreich (Le monde végétal) d'Engler, il a écrit en collaboration avec J. Perkins le chapitre Monimiaceae.
@@ -545,7 +559,9 @@
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lehrbuch der Pharmakognosie : avec 344 dessins. Springer, Berlin, 1905 (Texte En Ligne)
 Pharmazeutische Warenkunde, 4e édition 1911
@@ -581,7 +597,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Robert Zander, Fritz Encke, Günther Buchheim et Siegmund Seybold, Handwörterbuch der Pflanzennamen, Stuttgart, Ulmer, 1984, 13e éd. (ISBN 978-3-8001-5042-7).</t>
         </is>
